--- a/krpai2020/New 2/Sesi 1/automatic calibration calculator.xlsx
+++ b/krpai2020/New 2/Sesi 1/automatic calibration calculator.xlsx
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,13 +606,13 @@
         <v>1450</v>
       </c>
       <c r="C4" s="1">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="D4" s="1">
         <v>1500</v>
       </c>
       <c r="E4" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F4" s="1">
         <v>2000</v>
@@ -626,11 +626,11 @@
       </c>
       <c r="I4" s="1">
         <f>C4</f>
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="J4" s="1">
         <f>E4-2*(E4-B4)</f>
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K4" s="1">
         <f>D4-G4</f>
@@ -638,11 +638,11 @@
       </c>
       <c r="L4" s="1">
         <f>F4-C4</f>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M4" s="1">
         <f>E4-B4</f>
-        <v>-450</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -653,10 +653,10 @@
         <v>1400</v>
       </c>
       <c r="C5" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D5" s="1">
         <v>1550</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1450</v>
       </c>
       <c r="E5" s="1">
         <v>950</v>
@@ -669,11 +669,11 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5:H9" si="0">D5-2*(D5-G5)</f>
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I9" si="1">C5</f>
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="J5" s="1">
         <f>B5</f>
@@ -681,11 +681,11 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K9" si="2">D5-G5</f>
-        <v>-550</v>
+        <v>-450</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5:L9" si="3">F5-C5</f>
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="M5" s="1">
         <f>E5-B5</f>
@@ -703,7 +703,7 @@
         <v>1400</v>
       </c>
       <c r="D6" s="1">
-        <v>1480</v>
+        <v>1600</v>
       </c>
       <c r="E6" s="1">
         <v>950</v>
@@ -712,11 +712,11 @@
         <v>1850</v>
       </c>
       <c r="G6" s="1">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>2520</v>
+        <v>2500</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>-520</v>
+        <v>-450</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="3"/>
@@ -803,7 +803,7 @@
         <v>2000</v>
       </c>
       <c r="F8" s="1">
-        <v>1080</v>
+        <v>1040</v>
       </c>
       <c r="G8" s="1">
         <v>800</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="3"/>
-        <v>-470</v>
+        <v>-510</v>
       </c>
       <c r="M8" s="1">
         <f>E8-B8</f>
@@ -847,7 +847,7 @@
         <v>1400</v>
       </c>
       <c r="E9" s="1">
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="F9" s="1">
         <v>900</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="J9" s="1">
         <f>E9</f>
-        <v>1870</v>
+        <v>1840</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
@@ -877,7 +877,7 @@
       </c>
       <c r="M9" s="1">
         <f>B9-E9</f>
-        <v>-510</v>
+        <v>-480</v>
       </c>
     </row>
   </sheetData>
